--- a/outputs-HGR-r202-archive/g__Monoglobus_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Monoglobus_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,20 +570,20 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_71_1.fasta</t>
+          <t>label_20298_3_71_0.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9542411379543859</v>
+        <v>0.946978841866119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03991440152319999</v>
+        <v>0.05285637065685381</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005844460522413974</v>
+        <v>0.0001647874770271811</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9542411379543859</v>
+        <v>0.946978841866119</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -594,20 +594,20 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_71_2.fasta</t>
+          <t>label_20298_3_71_3.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9607514095971171</v>
+        <v>0.9727265580635539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03584750989201</v>
+        <v>0.01210852712902975</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003401080510872896</v>
+        <v>0.01516491480741626</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9607514095971171</v>
+        <v>0.9727265580635539</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -618,94 +618,46 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_71_0.fasta</t>
+          <t>label_20298_3_71_5.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.946978841866119</v>
+        <v>0.286311310548943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05285637065685381</v>
+        <v>0.3971919199339032</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001647874770271811</v>
+        <v>0.3164967695171538</v>
       </c>
       <c r="E5" t="n">
-        <v>0.946978841866119</v>
+        <v>0.3971919199339032</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>s__Monoglobus pectinilyticus</t>
+          <t>s__Monoglobus sp900542675</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_20298_3_71_3.fasta</t>
+          <t>label_20298_3_71_4.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9727265580635539</v>
+        <v>0.9774265950451346</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01210852712902975</v>
+        <v>0.02127197444382213</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01516491480741626</v>
+        <v>0.001301430511043183</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9727265580635539</v>
+        <v>0.9774265950451346</v>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>s__Monoglobus pectinilyticus</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_71_5.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.286311310548943</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3971919199339032</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3164967695171538</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3971919199339032</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_3_71_4.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9774265950451346</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02127197444382213</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.001301430511043183</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9774265950451346</v>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>s__Monoglobus pectinilyticus</t>
         </is>
@@ -722,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,20 +1269,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_1.fasta</t>
+          <t>label_UMGS491_15.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.219854379042298e-14</v>
+        <v>2.361087475684245e-14</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9649269823226562</v>
+        <v>0.9933281796358284</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03507301767732151</v>
+        <v>0.00667182036414786</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9649269823226562</v>
+        <v>0.9933281796358284</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1341,20 +1293,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_104.fasta</t>
+          <t>label_UMGS491_16.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.075713503325524e-14</v>
+        <v>2.673243152407213e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8508588293072491</v>
+        <v>0.9912098008119996</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1491411706926802</v>
+        <v>0.008790199187973653</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8508588293072491</v>
+        <v>0.9912098008119996</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1365,20 +1317,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_23.fasta</t>
+          <t>label_UMGS491_2.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.219816900346325e-14</v>
+        <v>5.049867011814877e-14</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9945285888052583</v>
+        <v>0.9952266975104077</v>
       </c>
       <c r="D27" t="n">
-        <v>0.005471411194719548</v>
+        <v>0.004773302489541698</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9945285888052583</v>
+        <v>0.9952266975104077</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1389,20 +1341,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_27.fasta</t>
+          <t>label_UMGS491_30.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.219881833029459e-14</v>
+        <v>2.220389074483052e-14</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9470287936607926</v>
+        <v>0.9628083868421341</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05297120633918522</v>
+        <v>0.0371916131578437</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9470287936607926</v>
+        <v>0.9628083868421341</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1413,20 +1365,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_31.fasta</t>
+          <t>label_UMGS491_36.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.457779659664971e-14</v>
+        <v>2.224416864019808e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9922790457719628</v>
+        <v>0.9995063814611472</v>
       </c>
       <c r="D29" t="n">
-        <v>0.007720954228002623</v>
+        <v>0.0004936185388305142</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9922790457719628</v>
+        <v>0.9995063814611472</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1437,44 +1389,44 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_33.fasta</t>
+          <t>label_UMGS491_4.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.219833692374813e-14</v>
+        <v>2.821096206061838e-14</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9879693429081666</v>
+        <v>0.1045895041311277</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01203065709181122</v>
+        <v>0.895410495868844</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9879693429081666</v>
+        <v>0.895410495868844</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>s__Monoglobus sp900542675</t>
+          <t>s__Monoglobus sp900554105</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_40.fasta</t>
+          <t>label_UMGS491_41.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.98732807621907e-14</v>
+        <v>2.219991938037826e-14</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8290274956194312</v>
+        <v>0.8839758495485992</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1709725043805289</v>
+        <v>0.1160241504513787</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8290274956194312</v>
+        <v>0.8839758495485992</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1485,20 +1437,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_45.fasta</t>
+          <t>label_UMGS491_49.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.220048618421286e-14</v>
+        <v>3.258600890310883e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8858743866072278</v>
+        <v>0.8889578886494188</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11412561339275</v>
+        <v>0.1110421113505487</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8858743866072278</v>
+        <v>0.8889578886494188</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1509,20 +1461,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_47.fasta</t>
+          <t>label_UMGS491_52.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.336067614336139e-14</v>
+        <v>2.63304828206199e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9816615813768346</v>
+        <v>0.9821957319868921</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01833841862314215</v>
+        <v>0.01780426801308153</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9816615813768346</v>
+        <v>0.9821957319868921</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1533,20 +1485,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_60.fasta</t>
+          <t>label_UMGS491_53.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.219886871327537e-14</v>
+        <v>3.187942607263699e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9438837906047509</v>
+        <v>0.9930101537959081</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05611620939522687</v>
+        <v>0.006989846204060003</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9438837906047509</v>
+        <v>0.9930101537959081</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1557,20 +1509,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_61.fasta</t>
+          <t>label_UMGS491_56.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.219880821140556e-14</v>
+        <v>2.845863547782048e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9424825748865376</v>
+        <v>0.9844376812282813</v>
       </c>
       <c r="D35" t="n">
-        <v>0.05751742511344012</v>
+        <v>0.01556231877169019</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9424825748865376</v>
+        <v>0.9844376812282813</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1581,20 +1533,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_67.fasta</t>
+          <t>label_UMGS491_58.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.292567825549732e-14</v>
+        <v>6.222464960356586e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8003546161307913</v>
+        <v>0.9304753713497531</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1996453838691858</v>
+        <v>0.06952462865018476</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8003546161307913</v>
+        <v>0.9304753713497531</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1605,20 +1557,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_77.fasta</t>
+          <t>label_UMGS491_64.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.219841231619546e-14</v>
+        <v>2.384126943062929e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9721078187184518</v>
+        <v>0.9846943853022757</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02789218128152611</v>
+        <v>0.01530561469770047</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9721078187184518</v>
+        <v>0.9846943853022757</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1629,20 +1581,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_82.fasta</t>
+          <t>label_UMGS491_65.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.219890434640556e-14</v>
+        <v>2.220381674600362e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0.936853452407059</v>
+        <v>0.5770512091565658</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06314654759291888</v>
+        <v>0.4229487908434119</v>
       </c>
       <c r="E38" t="n">
-        <v>0.936853452407059</v>
+        <v>0.5770512091565658</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1653,20 +1605,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_83.fasta</t>
+          <t>label_UMGS491_75.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.219830779447212e-14</v>
+        <v>2.32377095827753e-14</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9816653315076344</v>
+        <v>0.9088547444592854</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01833466849234339</v>
+        <v>0.09114525554069144</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9816653315076344</v>
+        <v>0.9088547444592854</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1677,20 +1629,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_89.fasta</t>
+          <t>label_UMGS491_81.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.219955206847803e-14</v>
+        <v>7.157627384435119e-14</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9413239795217068</v>
+        <v>0.9794066356218804</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05867602047827107</v>
+        <v>0.02059336437804804</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9413239795217068</v>
+        <v>0.9794066356218804</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1701,20 +1653,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_9.fasta</t>
+          <t>label_UMGS491_84.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.219852437687618e-14</v>
+        <v>2.942022023784447e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9780066338656406</v>
+        <v>0.9412695102665578</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0219933661343372</v>
+        <v>0.05873048973341275</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9780066338656406</v>
+        <v>0.9412695102665578</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1725,20 +1677,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_92.fasta</t>
+          <t>label_UMGS491_86.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.219879353049859e-14</v>
+        <v>2.219998773273439e-14</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9703524809967063</v>
+        <v>0.8764109210789578</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02964751900327155</v>
+        <v>0.12358907892102</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9703524809967063</v>
+        <v>0.8764109210789578</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1749,20 +1701,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_95.fasta</t>
+          <t>label_UMGS491_93.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.22028105073205e-14</v>
+        <v>2.42593895384095e-14</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6876825952444998</v>
+        <v>0.9921615189523106</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3123174047554779</v>
+        <v>0.007838481047665168</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6876825952444998</v>
+        <v>0.9921615189523106</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1773,20 +1725,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_97.fasta</t>
+          <t>label_UMGS491_94.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.219882471930804e-14</v>
+        <v>2.219938545485178e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9676659965628678</v>
+        <v>0.9403211207463701</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03233400343711013</v>
+        <v>0.0596788792536078</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9676659965628678</v>
+        <v>0.9403211207463701</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1797,20 +1749,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_15.fasta</t>
+          <t>label_UMGS491_10.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.361087475684245e-14</v>
+        <v>2.219994146326313e-14</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9933281796358284</v>
+        <v>0.8732442928797286</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00667182036414786</v>
+        <v>0.1267557071202492</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9933281796358284</v>
+        <v>0.8732442928797286</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1821,20 +1773,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_16.fasta</t>
+          <t>label_UMGS491_100.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.673243152407213e-14</v>
+        <v>2.220129307069504e-14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9912098008119996</v>
+        <v>0.8226969384303258</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008790199187973653</v>
+        <v>0.1773030615696521</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9912098008119996</v>
+        <v>0.8226969384303258</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1845,20 +1797,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_2.fasta</t>
+          <t>label_UMGS491_105.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5.049867011814877e-14</v>
+        <v>2.219898549602684e-14</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9952266975104077</v>
+        <v>0.9317175390194936</v>
       </c>
       <c r="D47" t="n">
-        <v>0.004773302489541698</v>
+        <v>0.06828246098048414</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9952266975104077</v>
+        <v>0.9317175390194936</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1869,20 +1821,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_30.fasta</t>
+          <t>label_UMGS491_106.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.220389074483052e-14</v>
+        <v>2.21984355306157e-14</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9628083868421341</v>
+        <v>0.9816872700989824</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0371916131578437</v>
+        <v>0.01831272990099536</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9628083868421341</v>
+        <v>0.9816872700989824</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1893,20 +1845,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_36.fasta</t>
+          <t>label_UMGS491_34.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.224416864019808e-14</v>
+        <v>2.219817910684721e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9995063814611472</v>
+        <v>0.9953551056360407</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0004936185388305142</v>
+        <v>0.004644894363937218</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9995063814611472</v>
+        <v>0.9953551056360407</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1917,44 +1869,44 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_4.fasta</t>
+          <t>label_UMGS491_38.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2.821096206061838e-14</v>
+        <v>2.219872840434559e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1045895041311277</v>
+        <v>0.9735566214351559</v>
       </c>
       <c r="D50" t="n">
-        <v>0.895410495868844</v>
+        <v>0.02644337856482203</v>
       </c>
       <c r="E50" t="n">
-        <v>0.895410495868844</v>
+        <v>0.9735566214351559</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>s__Monoglobus sp900554105</t>
+          <t>s__Monoglobus sp900542675</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_41.fasta</t>
+          <t>label_UMGS491_42.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.219991938037826e-14</v>
+        <v>4.185285559237324e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8839758495485992</v>
+        <v>0.7710502558784048</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1160241504513787</v>
+        <v>0.2289497441215533</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8839758495485992</v>
+        <v>0.7710502558784048</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1965,20 +1917,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_49.fasta</t>
+          <t>label_UMGS491_43.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.258600890310883e-14</v>
+        <v>2.219925996864539e-14</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8889578886494188</v>
+        <v>0.9419729494052816</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1110421113505487</v>
+        <v>0.05802705059469625</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8889578886494188</v>
+        <v>0.9419729494052816</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1989,20 +1941,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_52.fasta</t>
+          <t>label_UMGS491_46.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.63304828206199e-14</v>
+        <v>2.386103108130182e-14</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9821957319868921</v>
+        <v>0.9164516177254625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01780426801308153</v>
+        <v>0.08354838227451367</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9821957319868921</v>
+        <v>0.9164516177254625</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2013,20 +1965,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_53.fasta</t>
+          <t>label_UMGS491_5.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.187942607263699e-14</v>
+        <v>2.219814396925108e-14</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9930101537959081</v>
+        <v>0.9940953374021884</v>
       </c>
       <c r="D54" t="n">
-        <v>0.006989846204060003</v>
+        <v>0.005904662597789406</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9930101537959081</v>
+        <v>0.9940953374021884</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2037,20 +1989,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_56.fasta</t>
+          <t>label_UMGS491_51.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.845863547782048e-14</v>
+        <v>2.219830077766597e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9844376812282813</v>
+        <v>0.98145929597923</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01556231877169019</v>
+        <v>0.01854070402074783</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9844376812282813</v>
+        <v>0.98145929597923</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2061,20 +2013,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_58.fasta</t>
+          <t>label_UMGS491_55.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6.222464960356586e-14</v>
+        <v>2.22001873369751e-14</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9304753713497531</v>
+        <v>0.8904253068378808</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06952462865018476</v>
+        <v>0.109574693162097</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9304753713497531</v>
+        <v>0.8904253068378808</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2085,20 +2037,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_64.fasta</t>
+          <t>label_UMGS491_6.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.384126943062929e-14</v>
+        <v>2.888192678214478e-14</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9846943853022757</v>
+        <v>0.6759500206483446</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01530561469770047</v>
+        <v>0.3240499793516265</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9846943853022757</v>
+        <v>0.6759500206483446</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2109,20 +2061,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_65.fasta</t>
+          <t>label_UMGS491_62.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.220381674600362e-14</v>
+        <v>2.219943713343588e-14</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5770512091565658</v>
+        <v>0.9341318386298276</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4229487908434119</v>
+        <v>0.06586816137015013</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5770512091565658</v>
+        <v>0.9341318386298276</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2133,20 +2085,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_75.fasta</t>
+          <t>label_UMGS491_63.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2.32377095827753e-14</v>
+        <v>2.219831689168584e-14</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9088547444592854</v>
+        <v>0.9880706362404604</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09114525554069144</v>
+        <v>0.0119293637595173</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9088547444592854</v>
+        <v>0.9880706362404604</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2157,20 +2109,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_81.fasta</t>
+          <t>label_UMGS491_69.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7.157627384435119e-14</v>
+        <v>2.220005094804673e-14</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9794066356218804</v>
+        <v>0.8921514034012564</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02059336437804804</v>
+        <v>0.1078485965987213</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9794066356218804</v>
+        <v>0.8921514034012564</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2181,20 +2133,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_84.fasta</t>
+          <t>label_UMGS491_72.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.942022023784447e-14</v>
+        <v>2.949079003847414e-14</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9412695102665578</v>
+        <v>0.9406905295756895</v>
       </c>
       <c r="D61" t="n">
-        <v>0.05873048973341275</v>
+        <v>0.05930947042428088</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9412695102665578</v>
+        <v>0.9406905295756895</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2205,20 +2157,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_86.fasta</t>
+          <t>label_UMGS491_85.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.219998773273439e-14</v>
+        <v>2.219876668457634e-14</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8764109210789578</v>
+        <v>0.9632253071081698</v>
       </c>
       <c r="D62" t="n">
-        <v>0.12358907892102</v>
+        <v>0.0367746928918081</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8764109210789578</v>
+        <v>0.9632253071081698</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2229,20 +2181,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_93.fasta</t>
+          <t>label_UMGS491_88.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2.42593895384095e-14</v>
+        <v>2.220283142291435e-14</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9921615189523106</v>
+        <v>0.6970751259390611</v>
       </c>
       <c r="D63" t="n">
-        <v>0.007838481047665168</v>
+        <v>0.3029248740609168</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9921615189523106</v>
+        <v>0.6970751259390611</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2253,20 +2205,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_94.fasta</t>
+          <t>label_UMGS491_91.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.219938545485178e-14</v>
+        <v>3.790687467042634e-14</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9403211207463701</v>
+        <v>0.9346004336729776</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0596788792536078</v>
+        <v>0.06539956632698452</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9403211207463701</v>
+        <v>0.9346004336729776</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2277,20 +2229,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_10.fasta</t>
+          <t>label_UMGS491_98.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.219994146326313e-14</v>
+        <v>2.219866922536551e-14</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8732442928797286</v>
+        <v>0.9691324294905791</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1267557071202492</v>
+        <v>0.03086757050939875</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8732442928797286</v>
+        <v>0.9691324294905791</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2301,20 +2253,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_100.fasta</t>
+          <t>label_UMGS491_102.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.220129307069504e-14</v>
+        <v>2.220274453740036e-14</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8226969384303258</v>
+        <v>0.7251191549349648</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1773030615696521</v>
+        <v>0.2748808450650129</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8226969384303258</v>
+        <v>0.7251191549349648</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2325,20 +2277,20 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_105.fasta</t>
+          <t>label_UMGS491_103.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.219898549602684e-14</v>
+        <v>2.219875998112201e-14</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9317175390194936</v>
+        <v>0.9697053174223617</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06828246098048414</v>
+        <v>0.03029468257761623</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9317175390194936</v>
+        <v>0.9697053174223617</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2349,20 +2301,20 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_106.fasta</t>
+          <t>label_UMGS491_11.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.21984355306157e-14</v>
+        <v>3.667855374302503e-14</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9816872700989824</v>
+        <v>0.9776602437284067</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01831272990099536</v>
+        <v>0.02233975627155671</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9816872700989824</v>
+        <v>0.9776602437284067</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2373,20 +2325,20 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_34.fasta</t>
+          <t>label_UMGS491_12.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.219817910684721e-14</v>
+        <v>2.219821731730712e-14</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9953551056360407</v>
+        <v>0.9909017487006051</v>
       </c>
       <c r="D69" t="n">
-        <v>0.004644894363937218</v>
+        <v>0.009098251299372744</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9953551056360407</v>
+        <v>0.9909017487006051</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2397,20 +2349,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_38.fasta</t>
+          <t>label_UMGS491_17.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.219872840434559e-14</v>
+        <v>3.550497602814981e-13</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9735566214351559</v>
+        <v>0.9394727396518947</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02644337856482203</v>
+        <v>0.06052726034775029</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9735566214351559</v>
+        <v>0.9394727396518947</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2421,20 +2373,20 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_42.fasta</t>
+          <t>label_UMGS491_18.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.185285559237324e-14</v>
+        <v>2.219929328986048e-14</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7710502558784048</v>
+        <v>0.9451862394045428</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2289497441215533</v>
+        <v>0.05481376059543491</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7710502558784048</v>
+        <v>0.9451862394045428</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2445,20 +2397,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_43.fasta</t>
+          <t>label_UMGS491_19.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2.219925996864539e-14</v>
+        <v>2.224812657653607e-14</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9419729494052816</v>
+        <v>0.9980208801186111</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05802705059469625</v>
+        <v>0.001979119881366653</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9419729494052816</v>
+        <v>0.9980208801186111</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2469,20 +2421,20 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_46.fasta</t>
+          <t>label_UMGS491_20.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2.386103108130182e-14</v>
+        <v>2.219843261105656e-14</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9164516177254625</v>
+        <v>0.9861882722815546</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08354838227451367</v>
+        <v>0.01381172771842326</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9164516177254625</v>
+        <v>0.9861882722815546</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2493,20 +2445,20 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_5.fasta</t>
+          <t>label_UMGS491_25.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.219814396925108e-14</v>
+        <v>2.220001347209772e-14</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9940953374021884</v>
+        <v>0.9057274484270209</v>
       </c>
       <c r="D74" t="n">
-        <v>0.005904662597789406</v>
+        <v>0.09427255157295698</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9940953374021884</v>
+        <v>0.9057274484270209</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2517,20 +2469,20 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_51.fasta</t>
+          <t>label_UMGS491_26.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2.219830077766597e-14</v>
+        <v>8.633964363328961e-13</v>
       </c>
       <c r="C75" t="n">
-        <v>0.98145929597923</v>
+        <v>0.8639417503729862</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01854070402074783</v>
+        <v>0.1360582496261505</v>
       </c>
       <c r="E75" t="n">
-        <v>0.98145929597923</v>
+        <v>0.8639417503729862</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2541,20 +2493,20 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_55.fasta</t>
+          <t>label_UMGS491_29.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2.22001873369751e-14</v>
+        <v>2.219898097253705e-14</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8904253068378808</v>
+        <v>0.9384872313278135</v>
       </c>
       <c r="D76" t="n">
-        <v>0.109574693162097</v>
+        <v>0.06151276867216419</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8904253068378808</v>
+        <v>0.9384872313278135</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2565,20 +2517,20 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_6.fasta</t>
+          <t>label_UMGS491_37.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.888192678214478e-14</v>
+        <v>2.817719024089715e-13</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6759500206483446</v>
+        <v>0.9062257482208721</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3240499793516265</v>
+        <v>0.09377425177884617</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6759500206483446</v>
+        <v>0.9062257482208721</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2589,20 +2541,20 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_62.fasta</t>
+          <t>label_UMGS491_48.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.219943713343588e-14</v>
+        <v>2.219886396817834e-14</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9341318386298276</v>
+        <v>0.956884758592766</v>
       </c>
       <c r="D78" t="n">
-        <v>0.06586816137015013</v>
+        <v>0.04311524140721187</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9341318386298276</v>
+        <v>0.956884758592766</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2613,20 +2565,20 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_63.fasta</t>
+          <t>label_UMGS491_50.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.219831689168584e-14</v>
+        <v>2.219929855042657e-14</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9880706362404604</v>
+        <v>0.9353452404976383</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0119293637595173</v>
+        <v>0.06465475950233936</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9880706362404604</v>
+        <v>0.9353452404976383</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2637,20 +2589,20 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_69.fasta</t>
+          <t>label_UMGS491_57.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.220005094804673e-14</v>
+        <v>2.644989785979741e-14</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8921514034012564</v>
+        <v>0.9862222040505315</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1078485965987213</v>
+        <v>0.01377779594944211</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8921514034012564</v>
+        <v>0.9862222040505315</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2661,20 +2613,20 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_72.fasta</t>
+          <t>label_UMGS491_59.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2.949079003847414e-14</v>
+        <v>2.220043327226044e-14</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9406905295756895</v>
+        <v>0.9609382413614134</v>
       </c>
       <c r="D81" t="n">
-        <v>0.05930947042428088</v>
+        <v>0.03906175863856429</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9406905295756895</v>
+        <v>0.9609382413614134</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2685,20 +2637,20 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_85.fasta</t>
+          <t>label_UMGS491_68.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2.219876668457634e-14</v>
+        <v>3.853165263847199e-13</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9632253071081698</v>
+        <v>0.794951058528343</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0367746928918081</v>
+        <v>0.2050489414712716</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9632253071081698</v>
+        <v>0.794951058528343</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2709,20 +2661,20 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_88.fasta</t>
+          <t>label_UMGS491_7.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.220283142291435e-14</v>
+        <v>6.070625582004547e-14</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6970751259390611</v>
+        <v>0.9429479962582338</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3029248740609168</v>
+        <v>0.05705200374170544</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6970751259390611</v>
+        <v>0.9429479962582338</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2733,20 +2685,20 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_91.fasta</t>
+          <t>label_UMGS491_70.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3.790687467042634e-14</v>
+        <v>2.220015032700819e-14</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9346004336729776</v>
+        <v>0.8813363236683066</v>
       </c>
       <c r="D84" t="n">
-        <v>0.06539956632698452</v>
+        <v>0.1186636763316712</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9346004336729776</v>
+        <v>0.8813363236683066</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2757,20 +2709,20 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_98.fasta</t>
+          <t>label_UMGS491_73.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2.219866922536551e-14</v>
+        <v>2.21989486987342e-14</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9691324294905791</v>
+        <v>0.9502422841891625</v>
       </c>
       <c r="D85" t="n">
-        <v>0.03086757050939875</v>
+        <v>0.04975771581081545</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9691324294905791</v>
+        <v>0.9502422841891625</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2781,20 +2733,20 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_102.fasta</t>
+          <t>label_UMGS491_78.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.220274453740036e-14</v>
+        <v>2.219920096913756e-14</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7251191549349648</v>
+        <v>0.9428266452805695</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2748808450650129</v>
+        <v>0.05717335471940835</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7251191549349648</v>
+        <v>0.9428266452805695</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2805,20 +2757,20 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_103.fasta</t>
+          <t>label_UMGS491_79.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2.219875998112201e-14</v>
+        <v>6.750197159628192e-14</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9697053174223617</v>
+        <v>0.7162210921542688</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03029468257761623</v>
+        <v>0.2837789078456637</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9697053174223617</v>
+        <v>0.7162210921542688</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2829,20 +2781,20 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_11.fasta</t>
+          <t>label_UMGS491_80.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3.667855374302503e-14</v>
+        <v>2.219957593708149e-14</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9776602437284067</v>
+        <v>0.8906662606791944</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02233975627155671</v>
+        <v>0.1093337393207833</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9776602437284067</v>
+        <v>0.8906662606791944</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2853,20 +2805,20 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_12.fasta</t>
+          <t>label_UMGS491_87.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.219821731730712e-14</v>
+        <v>2.429230589896838e-14</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9909017487006051</v>
+        <v>0.7564703835153068</v>
       </c>
       <c r="D89" t="n">
-        <v>0.009098251299372744</v>
+        <v>0.2435296164846688</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9909017487006051</v>
+        <v>0.7564703835153068</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2877,20 +2829,20 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_17.fasta</t>
+          <t>label_UMGS491_96.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3.550497602814981e-13</v>
+        <v>2.220005973960745e-14</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9394727396518947</v>
+        <v>0.8973441236168417</v>
       </c>
       <c r="D90" t="n">
-        <v>0.06052726034775029</v>
+        <v>0.1026558763831362</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9394727396518947</v>
+        <v>0.8973441236168417</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2901,20 +2853,20 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_18.fasta</t>
+          <t>label_UMGS491_0.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.219929328986048e-14</v>
+        <v>2.220392774653215e-14</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9451862394045428</v>
+        <v>0.9996569457951262</v>
       </c>
       <c r="D91" t="n">
-        <v>0.05481376059543491</v>
+        <v>0.0003430542048515318</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9451862394045428</v>
+        <v>0.9996569457951262</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2925,20 +2877,20 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_19.fasta</t>
+          <t>label_UMGS491_101.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2.224812657653607e-14</v>
+        <v>2.219855929335551e-14</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9980208801186111</v>
+        <v>0.9748539103413646</v>
       </c>
       <c r="D92" t="n">
-        <v>0.001979119881366653</v>
+        <v>0.02514608965861314</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9980208801186111</v>
+        <v>0.9748539103413646</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2949,20 +2901,20 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_20.fasta</t>
+          <t>label_UMGS491_107.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2.219843261105656e-14</v>
+        <v>2.21990443573268e-14</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9861882722815546</v>
+        <v>0.9492773230754555</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01381172771842326</v>
+        <v>0.05072267692452229</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9861882722815546</v>
+        <v>0.9492773230754555</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2973,20 +2925,20 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_25.fasta</t>
+          <t>label_UMGS491_108.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2.220001347209772e-14</v>
+        <v>2.219841227666583e-14</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9057274484270209</v>
+        <v>0.9828484867204971</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09427255157295698</v>
+        <v>0.01715151327948066</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9057274484270209</v>
+        <v>0.9828484867204971</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2997,20 +2949,20 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_26.fasta</t>
+          <t>label_UMGS491_13.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>8.633964363328961e-13</v>
+        <v>2.219813944695251e-14</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8639417503729862</v>
+        <v>0.9949723548257426</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1360582496261505</v>
+        <v>0.005027645174235262</v>
       </c>
       <c r="E95" t="n">
-        <v>0.8639417503729862</v>
+        <v>0.9949723548257426</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3021,20 +2973,20 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_29.fasta</t>
+          <t>label_UMGS491_14.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.219898097253705e-14</v>
+        <v>2.220199219510122e-14</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9384872313278135</v>
+        <v>0.9990533355582051</v>
       </c>
       <c r="D96" t="n">
-        <v>0.06151276867216419</v>
+        <v>0.0009466644417728061</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9384872313278135</v>
+        <v>0.9990533355582051</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3045,20 +2997,20 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_37.fasta</t>
+          <t>label_UMGS491_21.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.817719024089715e-13</v>
+        <v>2.219826688043031e-14</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9062257482208721</v>
+        <v>0.9925102219082018</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09377425177884617</v>
+        <v>0.00748977809177592</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9062257482208721</v>
+        <v>0.9925102219082018</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3069,20 +3021,20 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_48.fasta</t>
+          <t>label_UMGS491_22.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2.219886396817834e-14</v>
+        <v>2.054333550595159e-12</v>
       </c>
       <c r="C98" t="n">
-        <v>0.956884758592766</v>
+        <v>0.9845372770566053</v>
       </c>
       <c r="D98" t="n">
-        <v>0.04311524140721187</v>
+        <v>0.01546272294134034</v>
       </c>
       <c r="E98" t="n">
-        <v>0.956884758592766</v>
+        <v>0.9845372770566053</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3093,20 +3045,20 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_50.fasta</t>
+          <t>label_UMGS491_24.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.219929855042657e-14</v>
+        <v>1.220201647263584e-13</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9353452404976383</v>
+        <v>0.9599391844887624</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06465475950233936</v>
+        <v>0.04006081551111566</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9353452404976383</v>
+        <v>0.9599391844887624</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3117,20 +3069,20 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_57.fasta</t>
+          <t>label_UMGS491_28.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2.644989785979741e-14</v>
+        <v>2.220373250480079e-14</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9862222040505315</v>
+        <v>0.9981980711810431</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01377779594944211</v>
+        <v>0.001801928818934837</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9862222040505315</v>
+        <v>0.9981980711810431</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3141,20 +3093,20 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_59.fasta</t>
+          <t>label_UMGS491_3.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.220043327226044e-14</v>
+        <v>2.219943783578565e-14</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9609382413614134</v>
+        <v>0.9977442265487444</v>
       </c>
       <c r="D101" t="n">
-        <v>0.03906175863856429</v>
+        <v>0.002255773451233262</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9609382413614134</v>
+        <v>0.9977442265487444</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3165,20 +3117,20 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_68.fasta</t>
+          <t>label_UMGS491_32.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3.853165263847199e-13</v>
+        <v>2.219824279707056e-14</v>
       </c>
       <c r="C102" t="n">
-        <v>0.794951058528343</v>
+        <v>0.986818810240539</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2050489414712716</v>
+        <v>0.01318118975943889</v>
       </c>
       <c r="E102" t="n">
-        <v>0.794951058528343</v>
+        <v>0.986818810240539</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3189,20 +3141,20 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_7.fasta</t>
+          <t>label_UMGS491_35.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6.070625582004547e-14</v>
+        <v>5.829180814690579e-14</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9429479962582338</v>
+        <v>0.9734269502303549</v>
       </c>
       <c r="D103" t="n">
-        <v>0.05705200374170544</v>
+        <v>0.02657304976958682</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9429479962582338</v>
+        <v>0.9734269502303549</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3213,20 +3165,20 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_70.fasta</t>
+          <t>label_UMGS491_39.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2.220015032700819e-14</v>
+        <v>2.219899532276511e-14</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8813363236683066</v>
+        <v>0.9652187618278822</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1186636763316712</v>
+        <v>0.03478123817209551</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8813363236683066</v>
+        <v>0.9652187618278822</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3237,20 +3189,20 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_73.fasta</t>
+          <t>label_UMGS491_44.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2.21989486987342e-14</v>
+        <v>2.220145516622139e-14</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9502422841891625</v>
+        <v>0.9981138159059725</v>
       </c>
       <c r="D105" t="n">
-        <v>0.04975771581081545</v>
+        <v>0.001886184094005338</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9502422841891625</v>
+        <v>0.9981138159059725</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3261,44 +3213,44 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_78.fasta</t>
+          <t>label_UMGS491_54.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2.219920096913756e-14</v>
+        <v>2.220044374006165e-14</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9428266452805695</v>
+        <v>0.1648582503908516</v>
       </c>
       <c r="D106" t="n">
-        <v>0.05717335471940835</v>
+        <v>0.8351417496091262</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9428266452805695</v>
+        <v>0.8351417496091262</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>s__Monoglobus sp900542675</t>
+          <t>s__Monoglobus sp900554105</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_79.fasta</t>
+          <t>label_UMGS491_66.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>6.750197159628192e-14</v>
+        <v>2.220910374881834e-14</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7162210921542688</v>
+        <v>0.9996941351159948</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2837789078456637</v>
+        <v>0.0003058648839830185</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7162210921542688</v>
+        <v>0.9996941351159948</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3309,20 +3261,20 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_80.fasta</t>
+          <t>label_UMGS491_71.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.219957593708149e-14</v>
+        <v>2.219943421783348e-14</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8906662606791944</v>
+        <v>0.9444742161869887</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1093337393207833</v>
+        <v>0.05552578381298923</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8906662606791944</v>
+        <v>0.9444742161869887</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3333,20 +3285,20 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_87.fasta</t>
+          <t>label_UMGS491_74.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2.429230589896838e-14</v>
+        <v>2.220617218799674e-14</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7564703835153068</v>
+        <v>0.9997260606034298</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2435296164846688</v>
+        <v>0.0002739393965479685</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7564703835153068</v>
+        <v>0.9997260606034298</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3357,20 +3309,20 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_96.fasta</t>
+          <t>label_UMGS491_76.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.220005973960745e-14</v>
+        <v>2.43791013087948e-14</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8973441236168417</v>
+        <v>0.9783694975611503</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1026558763831362</v>
+        <v>0.02163050243882525</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8973441236168417</v>
+        <v>0.9783694975611503</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3381,20 +3333,20 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_0.fasta</t>
+          <t>label_UMGS491_8.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2.220392774653215e-14</v>
+        <v>2.221943533533326e-14</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9996569457951262</v>
+        <v>0.9986849070240961</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0003430542048515318</v>
+        <v>0.001315092975881799</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9996569457951262</v>
+        <v>0.9986849070240961</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3405,20 +3357,20 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_101.fasta</t>
+          <t>label_UMGS491_90.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2.219855929335551e-14</v>
+        <v>2.219905408378248e-14</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9748539103413646</v>
+        <v>0.9557722415592561</v>
       </c>
       <c r="D112" t="n">
-        <v>0.02514608965861314</v>
+        <v>0.04422775844072175</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9748539103413646</v>
+        <v>0.9557722415592561</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3429,502 +3381,22 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS491_107.fasta</t>
+          <t>label_UMGS491_99.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2.21990443573268e-14</v>
+        <v>2.220381536085968e-14</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9492773230754555</v>
+        <v>0.5562110075908493</v>
       </c>
       <c r="D113" t="n">
-        <v>0.05072267692452229</v>
+        <v>0.4437889924091284</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9492773230754555</v>
+        <v>0.5562110075908493</v>
       </c>
       <c r="F113" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_108.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2.219841227666583e-14</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9828484867204971</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.01715151327948066</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.9828484867204971</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_13.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2.219813944695251e-14</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.9949723548257426</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.005027645174235262</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.9949723548257426</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_14.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2.220199219510122e-14</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9990533355582051</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.0009466644417728061</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.9990533355582051</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_21.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>2.219826688043031e-14</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9925102219082018</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.00748977809177592</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.9925102219082018</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_22.fasta</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>2.054333550595159e-12</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.9845372770566053</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.01546272294134034</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.9845372770566053</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_24.fasta</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>1.220201647263584e-13</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.9599391844887624</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.04006081551111566</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.9599391844887624</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_28.fasta</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2.220373250480079e-14</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9981980711810431</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.001801928818934837</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.9981980711810431</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_3.fasta</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>2.219943783578565e-14</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9977442265487444</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.002255773451233262</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.9977442265487444</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_32.fasta</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>2.219824279707056e-14</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.986818810240539</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.01318118975943889</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.986818810240539</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_35.fasta</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>5.829180814690579e-14</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9734269502303549</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.02657304976958682</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.9734269502303549</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_39.fasta</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>2.219899532276511e-14</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9652187618278822</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.03478123817209551</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.9652187618278822</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_44.fasta</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2.220145516622139e-14</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9981138159059725</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.001886184094005338</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.9981138159059725</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_54.fasta</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2.220044374006165e-14</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.1648582503908516</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.8351417496091262</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.8351417496091262</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_66.fasta</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>2.220910374881834e-14</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.9996941351159948</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.0003058648839830185</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.9996941351159948</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_71.fasta</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>2.219943421783348e-14</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.9444742161869887</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.05552578381298923</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.9444742161869887</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_74.fasta</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>2.220617218799674e-14</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.9997260606034298</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.0002739393965479685</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.9997260606034298</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_76.fasta</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>2.43791013087948e-14</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.9783694975611503</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.02163050243882525</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.9783694975611503</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_8.fasta</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>2.221943533533326e-14</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.9986849070240961</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.001315092975881799</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.9986849070240961</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_90.fasta</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>2.219905408378248e-14</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.9557722415592561</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.04422775844072175</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.9557722415592561</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS491_99.fasta</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>2.220381536085968e-14</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.5562110075908493</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.4437889924091284</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.5562110075908493</v>
-      </c>
-      <c r="F133" t="inlineStr">
         <is>
           <t>s__Monoglobus sp900542675</t>
         </is>
@@ -3941,7 +3413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4272,20 +3744,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_1.fasta</t>
+          <t>label_UMGS1682_0.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.219858809785423e-14</v>
+        <v>5.198661516139352e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03489430921838087</v>
+        <v>0.006384656985470694</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9651056907815969</v>
+        <v>0.9936153430144774</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9651056907815969</v>
+        <v>0.9936153430144774</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -4296,20 +3768,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_13.fasta</t>
+          <t>label_UMGS1682_11.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.219850232316223e-14</v>
+        <v>2.219846532534445e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02609776956138637</v>
+        <v>0.02352244587207184</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9739022304385914</v>
+        <v>0.9764775541279058</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9739022304385914</v>
+        <v>0.9764775541279058</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -4320,20 +3792,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_17.fasta</t>
+          <t>label_UMGS1682_12.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.219884066965937e-14</v>
+        <v>2.286831418471248e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05596546633794145</v>
+        <v>0.01689145021023481</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9440345336620363</v>
+        <v>0.9831085497897423</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9440345336620363</v>
+        <v>0.9831085497897423</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -4344,20 +3816,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_19.fasta</t>
+          <t>label_UMGS1682_21.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.12889423111681e-13</v>
+        <v>6.043313262039503e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1299421589737409</v>
+        <v>0.03431635674554913</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8700578410261463</v>
+        <v>0.9656836432543905</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8700578410261463</v>
+        <v>0.9656836432543905</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -4368,20 +3840,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_20.fasta</t>
+          <t>label_UMGS1682_23.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.220034936221854e-14</v>
+        <v>2.52493442184379e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1496154356578487</v>
+        <v>0.1079132540546777</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8503845643421291</v>
+        <v>0.892086745945297</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8503845643421291</v>
+        <v>0.892086745945297</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -4392,20 +3864,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_30.fasta</t>
+          <t>label_UMGS1682_26.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.358430892645346e-14</v>
+        <v>2.219869434534447e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1574203864489038</v>
+        <v>0.03186273341816327</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8425796135510726</v>
+        <v>0.9681372665818145</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8425796135510726</v>
+        <v>0.9681372665818145</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -4416,20 +3888,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_31.fasta</t>
+          <t>label_UMGS1682_3.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.903416298798319e-14</v>
+        <v>2.219893194346611e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0976440432719592</v>
+        <v>0.0581847307512681</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9023559567280117</v>
+        <v>0.9418152692487097</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9023559567280117</v>
+        <v>0.9418152692487097</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4440,20 +3912,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_33.fasta</t>
+          <t>label_UMGS1682_38.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.009669764233916e-13</v>
+        <v>2.220191879918035e-14</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1570313625794301</v>
+        <v>0.2075376551924328</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8429686374204689</v>
+        <v>0.7924623448075451</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8429686374204689</v>
+        <v>0.7924623448075451</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4464,20 +3936,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_35.fasta</t>
+          <t>label_UMGS1682_40.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.220412376058522e-14</v>
+        <v>2.220200171750252e-14</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4564575093750498</v>
+        <v>0.2217100739240572</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5435424906249281</v>
+        <v>0.7782899260759207</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5435424906249281</v>
+        <v>0.7782899260759207</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4488,20 +3960,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_53.fasta</t>
+          <t>label_UMGS1682_45.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.220202290999334e-14</v>
+        <v>2.220240891994592e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2889900321312657</v>
+        <v>0.08992543026720591</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7110099678687121</v>
+        <v>0.9100745697327719</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7110099678687121</v>
+        <v>0.9100745697327719</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4512,20 +3984,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_54.fasta</t>
+          <t>label_UMGS1682_5.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.220444411352223e-14</v>
+        <v>2.219967208636762e-14</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4918562161275657</v>
+        <v>0.1091594227717579</v>
       </c>
       <c r="D24" t="n">
-        <v>0.508143783872412</v>
+        <v>0.8908405772282197</v>
       </c>
       <c r="E24" t="n">
-        <v>0.508143783872412</v>
+        <v>0.8908405772282197</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -4536,20 +4008,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_58.fasta</t>
+          <t>label_UMGS1682_50.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.220294673686635e-14</v>
+        <v>2.220223927565806e-14</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3362335287269994</v>
+        <v>0.2712041957788166</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6637664712729784</v>
+        <v>0.7287958042211613</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6637664712729784</v>
+        <v>0.7287958042211613</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -4560,20 +4032,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_60.fasta</t>
+          <t>label_UMGS1682_55.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.220274181777837e-14</v>
+        <v>2.220224890395325e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3639130951643907</v>
+        <v>0.1490199610337263</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6360869048355871</v>
+        <v>0.8509800389662515</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6360869048355871</v>
+        <v>0.8509800389662515</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -4584,68 +4056,68 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_61.fasta</t>
+          <t>label_UMGS1682_62.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.220139387803163e-14</v>
+        <v>2.220278574000972e-14</v>
       </c>
       <c r="C27" t="n">
-        <v>0.782466524752475</v>
+        <v>0.3389183016999405</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2175334752475028</v>
+        <v>0.6610816983000372</v>
       </c>
       <c r="E27" t="n">
-        <v>0.782466524752475</v>
+        <v>0.6610816983000372</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>s__Monoglobus sp900542675</t>
+          <t>s__Monoglobus sp900554105</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_64.fasta</t>
+          <t>label_UMGS1682_63.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.220363664833398e-14</v>
+        <v>2.21999152609298e-14</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3942242617309803</v>
+        <v>0.879651592092195</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6057757382689974</v>
+        <v>0.1203484079077828</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6057757382689974</v>
+        <v>0.879651592092195</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>s__Monoglobus sp900554105</t>
+          <t>s__Monoglobus sp900542675</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_0.fasta</t>
+          <t>label_UMGS1682_9.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.198661516139352e-14</v>
+        <v>1.164324221197882e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>0.006384656985470694</v>
+        <v>0.08927185322332544</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9936153430144774</v>
+        <v>0.9107281467765581</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9936153430144774</v>
+        <v>0.9107281467765581</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -4656,20 +4128,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_11.fasta</t>
+          <t>label_UMGS1682_10.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.219846532534445e-14</v>
+        <v>2.563888642140783e-14</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02352244587207184</v>
+        <v>0.03101563665734867</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9764775541279058</v>
+        <v>0.9689843633426257</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9764775541279058</v>
+        <v>0.9689843633426257</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -4680,20 +4152,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_12.fasta</t>
+          <t>label_UMGS1682_16.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.286831418471248e-14</v>
+        <v>2.669341179012822e-14</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01689145021023481</v>
+        <v>0.06882031281878762</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9831085497897423</v>
+        <v>0.9311796871811857</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9831085497897423</v>
+        <v>0.9311796871811857</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -4704,20 +4176,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_21.fasta</t>
+          <t>label_UMGS1682_18.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.043313262039503e-14</v>
+        <v>2.338133385833548e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0.03431635674554913</v>
+        <v>0.2836990713700182</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9656836432543905</v>
+        <v>0.7163009286299585</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9656836432543905</v>
+        <v>0.7163009286299585</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -4728,20 +4200,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_23.fasta</t>
+          <t>label_UMGS1682_22.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.52493442184379e-14</v>
+        <v>2.220202063330991e-14</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1079132540546777</v>
+        <v>0.2259969497916681</v>
       </c>
       <c r="D33" t="n">
-        <v>0.892086745945297</v>
+        <v>0.7740030502083096</v>
       </c>
       <c r="E33" t="n">
-        <v>0.892086745945297</v>
+        <v>0.7740030502083096</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -4752,20 +4224,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_26.fasta</t>
+          <t>label_UMGS1682_28.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.219869434534447e-14</v>
+        <v>2.220204598854891e-14</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03186273341816327</v>
+        <v>0.2457702179106079</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9681372665818145</v>
+        <v>0.7542297820893699</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9681372665818145</v>
+        <v>0.7542297820893699</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -4776,20 +4248,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_3.fasta</t>
+          <t>label_UMGS1682_34.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.219893194346611e-14</v>
+        <v>2.616295566036803e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0581847307512681</v>
+        <v>0.06632188118061995</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9418152692487097</v>
+        <v>0.9336781188193539</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9418152692487097</v>
+        <v>0.9336781188193539</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -4800,20 +4272,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_38.fasta</t>
+          <t>label_UMGS1682_43.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2.220191879918035e-14</v>
+        <v>2.920578215920283e-14</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2075376551924328</v>
+        <v>0.3660262372611129</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7924623448075451</v>
+        <v>0.6339737627388579</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7924623448075451</v>
+        <v>0.6339737627388579</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -4824,20 +4296,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_40.fasta</t>
+          <t>label_UMGS1682_48.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.220200171750252e-14</v>
+        <v>2.726667969573046e-14</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2217100739240572</v>
+        <v>0.3362108084728164</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7782899260759207</v>
+        <v>0.6637891915271563</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7782899260759207</v>
+        <v>0.6637891915271563</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -4848,20 +4320,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_45.fasta</t>
+          <t>label_UMGS1682_51.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.220240891994592e-14</v>
+        <v>4.170588712408879e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08992543026720591</v>
+        <v>0.3089233469913318</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9100745697327719</v>
+        <v>0.6910766530086265</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9100745697327719</v>
+        <v>0.6910766530086265</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -4872,20 +4344,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_5.fasta</t>
+          <t>label_UMGS1682_52.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.219967208636762e-14</v>
+        <v>2.220119216077818e-14</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1091594227717579</v>
+        <v>0.1661019121915615</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8908405772282197</v>
+        <v>0.8338980878084163</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8908405772282197</v>
+        <v>0.8338980878084163</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -4896,20 +4368,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_50.fasta</t>
+          <t>label_UMGS1682_6.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.220223927565806e-14</v>
+        <v>2.219894589999428e-14</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2712041957788166</v>
+        <v>0.034672970447801</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7287958042211613</v>
+        <v>0.9653270295521768</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7287958042211613</v>
+        <v>0.9653270295521768</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4920,44 +4392,44 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_55.fasta</t>
+          <t>label_UMGS1682_67.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.220224890395325e-14</v>
+        <v>2.219934107644655e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1490199610337263</v>
+        <v>0.919864897451495</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8509800389662515</v>
+        <v>0.08013510254848272</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8509800389662515</v>
+        <v>0.919864897451495</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>s__Monoglobus sp900554105</t>
+          <t>s__Monoglobus sp900542675</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_62.fasta</t>
+          <t>label_UMGS1682_68.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.220278574000972e-14</v>
+        <v>2.220243321072292e-14</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3389183016999405</v>
+        <v>0.3039159453829883</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6610816983000372</v>
+        <v>0.6960840546169895</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6610816983000372</v>
+        <v>0.6960840546169895</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -4968,44 +4440,44 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_63.fasta</t>
+          <t>label_UMGS1682_8.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.21999152609298e-14</v>
+        <v>2.440507938289636e-14</v>
       </c>
       <c r="C43" t="n">
-        <v>0.879651592092195</v>
+        <v>0.02034684798681628</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1203484079077828</v>
+        <v>0.9796531520131593</v>
       </c>
       <c r="E43" t="n">
-        <v>0.879651592092195</v>
+        <v>0.9796531520131593</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>s__Monoglobus sp900542675</t>
+          <t>s__Monoglobus sp900554105</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_9.fasta</t>
+          <t>label_UMGS1682_14.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.164324221197882e-13</v>
+        <v>3.5185144497029e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08927185322332544</v>
+        <v>0.05108614708357182</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9107281467765581</v>
+        <v>0.948913852916393</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9107281467765581</v>
+        <v>0.948913852916393</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -5016,20 +4488,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_10.fasta</t>
+          <t>label_UMGS1682_2.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.563888642140783e-14</v>
+        <v>3.506495016417968e-14</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03101563665734867</v>
+        <v>0.1167676303506869</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9689843633426257</v>
+        <v>0.883232369649278</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9689843633426257</v>
+        <v>0.883232369649278</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -5040,20 +4512,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_16.fasta</t>
+          <t>label_UMGS1682_25.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.669341179012822e-14</v>
+        <v>3.398352786741491e-14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06882031281878762</v>
+        <v>0.04554348516602229</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9311796871811857</v>
+        <v>0.9544565148339438</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9311796871811857</v>
+        <v>0.9544565148339438</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -5064,20 +4536,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_18.fasta</t>
+          <t>label_UMGS1682_29.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.338133385833548e-14</v>
+        <v>2.33408837764193e-14</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2836990713700182</v>
+        <v>0.291312353984026</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7163009286299585</v>
+        <v>0.7086876460159507</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7163009286299585</v>
+        <v>0.7086876460159507</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -5088,20 +4560,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_22.fasta</t>
+          <t>label_UMGS1682_32.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.220202063330991e-14</v>
+        <v>3.277913113587308e-14</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2259969497916681</v>
+        <v>0.1189481091482162</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7740030502083096</v>
+        <v>0.881051890851751</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7740030502083096</v>
+        <v>0.881051890851751</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -5112,20 +4584,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_28.fasta</t>
+          <t>label_UMGS1682_39.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.220204598854891e-14</v>
+        <v>4.153813030177521e-14</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2457702179106079</v>
+        <v>0.1969081090167558</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7542297820893699</v>
+        <v>0.8030918909832028</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7542297820893699</v>
+        <v>0.8030918909832028</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -5136,20 +4608,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_34.fasta</t>
+          <t>label_UMGS1682_41.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2.616295566036803e-14</v>
+        <v>2.307223952492175e-14</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06632188118061995</v>
+        <v>0.1819306276233357</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9336781188193539</v>
+        <v>0.8180693723766411</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9336781188193539</v>
+        <v>0.8180693723766411</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -5160,20 +4632,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_43.fasta</t>
+          <t>label_UMGS1682_42.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.920578215920283e-14</v>
+        <v>2.526776199751993e-14</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3660262372611129</v>
+        <v>0.3260391704987118</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6339737627388579</v>
+        <v>0.6739608295012629</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6339737627388579</v>
+        <v>0.6739608295012629</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -5184,20 +4656,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_48.fasta</t>
+          <t>label_UMGS1682_44.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.726667969573046e-14</v>
+        <v>4.868742814363463e-14</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3362108084728164</v>
+        <v>0.2159769801851025</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6637891915271563</v>
+        <v>0.7840230198148488</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6637891915271563</v>
+        <v>0.7840230198148488</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -5208,20 +4680,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_51.fasta</t>
+          <t>label_UMGS1682_46.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.170588712408879e-14</v>
+        <v>3.107339423805643e-14</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3089233469913318</v>
+        <v>0.2725431229626924</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6910766530086265</v>
+        <v>0.7274568770372765</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6910766530086265</v>
+        <v>0.7274568770372765</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5232,20 +4704,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_52.fasta</t>
+          <t>label_UMGS1682_47.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.220119216077818e-14</v>
+        <v>3.685622576133083e-14</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1661019121915615</v>
+        <v>0.08068916296403301</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8338980878084163</v>
+        <v>0.9193108370359301</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8338980878084163</v>
+        <v>0.9193108370359301</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -5256,20 +4728,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_6.fasta</t>
+          <t>label_UMGS1682_65.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.219894589999428e-14</v>
+        <v>2.220378594648988e-14</v>
       </c>
       <c r="C55" t="n">
-        <v>0.034672970447801</v>
+        <v>0.4000117524495741</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9653270295521768</v>
+        <v>0.5999882475504037</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9653270295521768</v>
+        <v>0.5999882475504037</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -5280,44 +4752,44 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_67.fasta</t>
+          <t>label_UMGS1682_15.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.219934107644655e-14</v>
+        <v>2.219826164258962e-14</v>
       </c>
       <c r="C56" t="n">
-        <v>0.919864897451495</v>
+        <v>0.01205232785097865</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08013510254848272</v>
+        <v>0.9879476721489991</v>
       </c>
       <c r="E56" t="n">
-        <v>0.919864897451495</v>
+        <v>0.9879476721489991</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>s__Monoglobus sp900542675</t>
+          <t>s__Monoglobus sp900554105</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_68.fasta</t>
+          <t>label_UMGS1682_24.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.220243321072292e-14</v>
+        <v>2.220109796689949e-14</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3039159453829883</v>
+        <v>0.1393085154939999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6960840546169895</v>
+        <v>0.8606914845059779</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6960840546169895</v>
+        <v>0.8606914845059779</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -5328,20 +4800,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_8.fasta</t>
+          <t>label_UMGS1682_27.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2.440507938289636e-14</v>
+        <v>2.533750889634276e-14</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02034684798681628</v>
+        <v>0.1258398043555309</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9796531520131593</v>
+        <v>0.8741601956444437</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9796531520131593</v>
+        <v>0.8741601956444437</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -5352,20 +4824,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_14.fasta</t>
+          <t>label_UMGS1682_36.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.5185144497029e-14</v>
+        <v>2.30976707536729e-14</v>
       </c>
       <c r="C59" t="n">
-        <v>0.05108614708357182</v>
+        <v>0.04428089877611222</v>
       </c>
       <c r="D59" t="n">
-        <v>0.948913852916393</v>
+        <v>0.9557191012238647</v>
       </c>
       <c r="E59" t="n">
-        <v>0.948913852916393</v>
+        <v>0.9557191012238647</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -5376,20 +4848,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_2.fasta</t>
+          <t>label_UMGS1682_37.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3.506495016417968e-14</v>
+        <v>3.046424656933781e-14</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1167676303506869</v>
+        <v>0.2434525916482067</v>
       </c>
       <c r="D60" t="n">
-        <v>0.883232369649278</v>
+        <v>0.7565474083517629</v>
       </c>
       <c r="E60" t="n">
-        <v>0.883232369649278</v>
+        <v>0.7565474083517629</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -5400,20 +4872,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_25.fasta</t>
+          <t>label_UMGS1682_4.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.398352786741491e-14</v>
+        <v>2.793243968812904e-14</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04554348516602229</v>
+        <v>0.003657897845013069</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9544565148339438</v>
+        <v>0.996342102154959</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9544565148339438</v>
+        <v>0.996342102154959</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -5424,20 +4896,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_29.fasta</t>
+          <t>label_UMGS1682_49.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.33408837764193e-14</v>
+        <v>2.220014619414578e-14</v>
       </c>
       <c r="C62" t="n">
-        <v>0.291312353984026</v>
+        <v>0.1525559528442012</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7086876460159507</v>
+        <v>0.8474440471557766</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7086876460159507</v>
+        <v>0.8474440471557766</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -5448,20 +4920,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_32.fasta</t>
+          <t>label_UMGS1682_56.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3.277913113587308e-14</v>
+        <v>2.220059993334933e-14</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1189481091482162</v>
+        <v>0.1966052288349012</v>
       </c>
       <c r="D63" t="n">
-        <v>0.881051890851751</v>
+        <v>0.8033947711650766</v>
       </c>
       <c r="E63" t="n">
-        <v>0.881051890851751</v>
+        <v>0.8033947711650766</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -5472,44 +4944,44 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_39.fasta</t>
+          <t>label_UMGS1682_57.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.153813030177521e-14</v>
+        <v>4.18559801245251e-14</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1969081090167558</v>
+        <v>0.8811988838007179</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8030918909832028</v>
+        <v>0.1188011161992403</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8030918909832028</v>
+        <v>0.8811988838007179</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>s__Monoglobus sp900554105</t>
+          <t>s__Monoglobus sp900542675</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_41.fasta</t>
+          <t>label_UMGS1682_59.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2.307223952492175e-14</v>
+        <v>2.220231123771511e-14</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1819306276233357</v>
+        <v>0.3286547770587288</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8180693723766411</v>
+        <v>0.671345222941249</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8180693723766411</v>
+        <v>0.671345222941249</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -5520,406 +4992,46 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_42.fasta</t>
+          <t>label_UMGS1682_66.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.526776199751993e-14</v>
+        <v>2.220054517794444e-14</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3260391704987118</v>
+        <v>0.8566955010141996</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6739608295012629</v>
+        <v>0.1433044989857781</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6739608295012629</v>
+        <v>0.8566955010141996</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>s__Monoglobus sp900554105</t>
+          <t>s__Monoglobus sp900542675</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1682_44.fasta</t>
+          <t>label_UMGS1682_7.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.868742814363463e-14</v>
+        <v>2.219821917877843e-14</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2159769801851025</v>
+        <v>0.01123941990546312</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7840230198148488</v>
+        <v>0.9887605800945147</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7840230198148488</v>
+        <v>0.9887605800945147</v>
       </c>
       <c r="F67" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_46.fasta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3.107339423805643e-14</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.2725431229626924</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.7274568770372765</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.7274568770372765</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_47.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3.685622576133083e-14</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.08068916296403301</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9193108370359301</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.9193108370359301</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_65.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>2.220378594648988e-14</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.4000117524495741</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.5999882475504037</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.5999882475504037</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_15.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>2.219826164258962e-14</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.01205232785097865</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9879476721489991</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.9879476721489991</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_24.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2.220109796689949e-14</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.1393085154939999</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.8606914845059779</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.8606914845059779</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_27.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>2.533750889634276e-14</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.1258398043555309</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.8741601956444437</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.8741601956444437</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_36.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>2.30976707536729e-14</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.04428089877611222</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9557191012238647</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.9557191012238647</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_37.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>3.046424656933781e-14</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.2434525916482067</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.7565474083517629</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.7565474083517629</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_4.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>2.793243968812904e-14</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.003657897845013069</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.996342102154959</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.996342102154959</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_49.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2.220014619414578e-14</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.1525559528442012</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.8474440471557766</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.8474440471557766</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_56.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2.220059993334933e-14</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.1966052288349012</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.8033947711650766</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.8033947711650766</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_57.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>4.18559801245251e-14</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.8811988838007179</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.1188011161992403</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.8811988838007179</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_59.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>2.220231123771511e-14</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.3286547770587288</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.671345222941249</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.671345222941249</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900554105</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_66.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>2.220054517794444e-14</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.8566955010141996</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.1433044989857781</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.8566955010141996</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>s__Monoglobus sp900542675</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1682_7.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>2.219821917877843e-14</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.01123941990546312</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.9887605800945147</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.9887605800945147</v>
-      </c>
-      <c r="F82" t="inlineStr">
         <is>
           <t>s__Monoglobus sp900554105</t>
         </is>
